--- a/reports/liquidacion_mensual_15/templates/xlsx/template.xlsx
+++ b/reports/liquidacion_mensual_15/templates/xlsx/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/mariacristina_fernandezgrande_telefonica_com/Documents/Documents/Cristina Backup/TESLite/TESLite-reports-master/subscription_list/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc00907\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{47D9FCAD-C3B9-704B-8CF3-0C93CA4DD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B28857-A5BD-4378-9C4F-8293FEE75365}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA47BC2-530F-4DEC-B183-F3C5038B889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Customer ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Fractalia ID</t>
+  </si>
+  <si>
+    <t>Cancellation Date</t>
   </si>
 </sst>
 </file>
@@ -451,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="2" max="4" width="20" style="3" customWidth="1"/>
@@ -481,10 +484,11 @@
     <col min="23" max="23" width="45.85546875" style="3" customWidth="1"/>
     <col min="24" max="24" width="20" style="3" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="45.85546875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="3"/>
+    <col min="26" max="26" width="21" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,9 +564,12 @@
       <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
+  <autoFilter ref="A1:Z1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>